--- a/Income/EL_inc.xlsx
+++ b/Income/EL_inc.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -106,13 +106,14 @@
     <col min="31" max="31" bestFit="1" customWidth="1" width="16.5"/>
     <col min="32" max="32" bestFit="1" customWidth="1" width="16.5"/>
     <col min="33" max="33" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="34" max="34" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="34" max="34" bestFit="1" customWidth="1" width="16.5"/>
     <col min="35" max="35" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="36" max="36" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="37" max="37" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="38" max="38" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>14707000000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>14178000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>13938000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>14272000000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>15438000000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>15847000000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>15234000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>14863000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>14568000000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>14194000000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>13933000000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>13683000000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>13282000000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>12769000000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>12233000000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>11824000000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>11576000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>11376000000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>11292000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>11262000000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>11140000000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>11063500000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>10984000000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>10780000000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>10981300000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>10950600000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>10924800000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>10968800000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>10650900000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>10392900000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>10307200000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>10181700000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>10025499000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>9981899000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>9786399000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>9713599000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>9523000000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>9440500000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>9195000000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>8810000000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>3609000000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>3505000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>3458000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>3544000000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>3613000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>3597000000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>3472000000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>3387000000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>3249000000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>3113000000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>2956000000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>2844000000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>2757000000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>2665000000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>2549000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>2434000000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>2335000000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>2248000000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>2200000000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>2181000000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>2157400000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>2156300000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>2140400000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>2100000000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>2146400000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>2142200000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>2150700000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>2158200000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>2100000000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>2044400000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>2030800000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>2025900000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>1991500000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>2017700000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>2000700000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>1995800000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>1979700100.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>1993000100.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>1983100100.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>1936900100.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>11098000000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>10673000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>10480000000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>10728000000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>11825000000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>12250000000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>11762000000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>11476000000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>11319000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>11081000000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>10977000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>10839000000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>10525000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>10104000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>9684000000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>9390000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>9241000000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>9128000000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>9092000000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>9081000000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>8982600000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>8907200000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>8843600000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>8680000000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>8834900000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>8808400000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>8774100000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>8810600000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>8550900000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>8348500000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>8276400000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>8155800000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>8034000000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>7964200000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>7785700000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>7717800000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>7543300000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>7447500000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>7211900000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>6873100000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>8718000000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>8566000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>8460000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>8597000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>9128000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>9305000000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>9034000000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>8857000000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>8722000000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>8644000000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>8601000000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>8553000000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>8204000000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>7892000000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>7595000000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>7460000000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>7415000000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>7389000000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>7358000000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>7338000000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>7253600000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>7180000000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>7132600000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>7074000000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>7077400000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>7106500000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>7052100000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>6985900000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>6939100000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>6834900000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>6749300000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>6597000000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>6533200000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>6466900000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>6345000000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>6324800000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>6183200000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>6060100000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>5902600000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>5696700000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>1841000000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>1334000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>532000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>606000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>1365000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>1930000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>2440000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>2313000000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>2375000000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>2199000000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>2138000000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>2055000000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>2019000000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>1948000000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>1855000000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>1704000000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>1605000000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>1562000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>1575000000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>1610000000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>1695000000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>1708200000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>1711000000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>1606000000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>1758200400.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>1702600500.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>1726100500.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>1827600700.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>1593202100.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>1496701900.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>1493501800.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>1526001600.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>1453400000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>1419800000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>1363700100.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>1311700100.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>1303099100.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>1300699100.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>1221399200.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>1089399100.0</v>
       </c>
     </row>
@@ -865,17 +884,17 @@
           <t>Interest Expense (Operating)</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>189000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>183000000.0</v>
       </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1052,6 +1071,11 @@
         </is>
       </c>
       <c r="AN7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO7" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1064,22 +1088,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
+        <v>375000000.0</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>846000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>2220000000.0</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>2213000000.0</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>1835000000.0</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>1453000000.0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>-6000000.0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>-6000000.0</v>
@@ -1088,96 +1112,99 @@
         <v>-6000000.0</v>
       </c>
       <c r="J8" s="0" t="n">
+        <v>-6000000.0</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>-77000000.0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>-74000000.0</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>-75000000.0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>-93000000.0</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>-95000000.0</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>-92000000.0</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>-87000000.0</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>-65000000.0</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>-59000000.0</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <v>-56000000.0</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="U8" s="0" t="n">
         <v>-55000000.0</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="V8" s="0" t="n">
         <v>-50500000.0</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>-48600000.0</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="X8" s="0" t="n">
         <v>-45800000.0</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="Y8" s="0" t="n">
         <v>-45000000.0</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Z8" s="0" t="n">
         <v>-49100000.0</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <v>-49300000.0</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <v>-50500000.0</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <v>-50800000.0</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AD8" s="0" t="n">
         <v>-51200000.0</v>
       </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AE8" s="0" t="n">
         <v>-51500000.0</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AF8" s="0" t="n">
         <v>-31200000.0</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AG8" s="0" t="n">
         <v>-50800000.0</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AH8" s="0" t="n">
         <v>-51800000.0</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AI8" s="0" t="n">
         <v>-53700000.0</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AJ8" s="0" t="n">
         <v>-67700000.0</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AK8" s="0" t="n">
         <v>-50600000.0</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AL8" s="0" t="n">
         <v>-52500000.0</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AM8" s="0" t="n">
         <v>-53800000.0</v>
       </c>
-      <c r="AM8" s="0" t="n">
+      <c r="AN8" s="0" t="n">
         <v>-63800000.0</v>
       </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AO8" s="0" t="n">
         <v>-63900000.0</v>
       </c>
     </row>
@@ -1188,120 +1215,123 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>81000000.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>52000000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>48000000.0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>66000000.0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>91000000.0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>109000000.0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>131000000.0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>133000000.0</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>133000000.0</v>
       </c>
       <c r="J9" s="0" t="n">
+        <v>133000000.0</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>134000000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>131000000.0</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>128000000.0</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>128000000.0</v>
       </c>
       <c r="N9" s="0" t="n">
+        <v>128000000.0</v>
+      </c>
+      <c r="O9" s="0" t="n">
         <v>123000000.0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>113000000.0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>103000000.0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>90000000.0</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>80000000.0</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>75000000.0</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>71000000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>67000000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>64200000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>62200000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>60000000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>61300000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>61100000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>60700000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>59400000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>64400000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>62000000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>60800000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>82200000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>74900000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>76800000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>80000000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>61100000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>63000000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>64300000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>63800000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>63900000.0</v>
       </c>
     </row>
@@ -1312,120 +1342,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>1676000000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>1176000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>957000000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>1046000000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>1850000000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>2497000000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>2434000000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>2307000000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>2369000000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>2122000000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>2064000000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>1980000000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>1926000000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>1853000000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>1763000000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>1617000000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>1540000000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>1503000000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>1519000000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>1555000000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>1644500100.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>1659600100.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>1665200100.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>1561000100.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>1709100000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>1653300000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>1675600000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>1776800000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>1542000000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>1445200000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>1462300000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>1475200000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>1401600000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>1366100000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>1296000000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>1261100000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>1250600000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>1246900000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>1157600000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>1025500000.0</v>
       </c>
     </row>
@@ -1436,120 +1469,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>275000000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>237000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>334000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>350000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>537000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>623000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>544000000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>513000000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>545000000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>481000000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>875000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>863000000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>767000000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>768000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>373000000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>361000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>419000000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>416000000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>413000000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>434000000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>464100000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>472500000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>489400000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>467000000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>511100000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>514300000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>539100000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>567700000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>495400000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>433400000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>436300000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>451400000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>421500000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>433600000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>414500000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>400600000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>399100000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>401600000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>364800000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>321700000.0</v>
       </c>
     </row>
@@ -1560,120 +1596,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>1401000000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>939000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>623000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>696000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>1313000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>1874000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>1890000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>1794000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>1824000000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>1641000000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>1189000000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>1117000000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>1159000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>1085000000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>1390000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>1256000000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>1121000000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>1087000000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>1106000000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>1121000000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>1180400000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>1187100000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>1175800000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>1094000000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>1198000100.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>1139000100.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>1136500100.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>1209100100.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>1046599900.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>1011799900.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>1025999900.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>1023799900.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>980100000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>932500000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>881500000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>860500000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>851499900.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>845299900.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>792799900.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>703799900.0</v>
       </c>
     </row>
@@ -1684,120 +1723,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>1390000000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>928000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>612000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>684000000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>1303000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>1864000000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>1880000000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>1785000000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>1814000000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>1631000000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>1181000000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>1108000000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>1151000000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>1077000000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>1382000000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>1249000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>1114000000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>1081000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>1100000000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>1115000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>1174100000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>1181200000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>1169900000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>1089000000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>1193600000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>1134700000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>1131500000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>1204100000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>1040400000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>1006000000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>1021000000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>1019800000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>977000000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>928600000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>877800000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>856900000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>846800000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>841100000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>788300000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>700800000.0</v>
       </c>
     </row>
@@ -1807,121 +1849,126 @@
           <t>EPS (Basic)</t>
         </is>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>2.49</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>1.64</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>1.87</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>3.58</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>5.13</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>5.19</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>4.9</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>4.98</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>4.46</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>3.21</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>3.01</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>3.12</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>2.92</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>3.76</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>3.03</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>2.94</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>2.98</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>3.01</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>3.17</v>
       </c>
       <c r="V14" s="0" t="n">
         <v>3.17</v>
       </c>
       <c r="W14" s="0" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="X14" s="0" t="n">
         <v>3.11</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>2.88</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>3.14</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>2.97</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>2.93</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>3.11</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>2.68</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>2.59</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>2.64</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>2.63</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>2.52</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>2.4</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>2.27</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>2.215</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>2.19</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>2.165</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>2.01</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>1.78</v>
       </c>
     </row>
@@ -1931,121 +1978,126 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>0.7528</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>0.7519</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>0.7517</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>0.766</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>0.773</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0.7721</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.7721</v>
       </c>
       <c r="I15" s="0" t="n">
+        <v>0.7721</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>0.777</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>0.7807</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>0.7878</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>0.7922</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>0.7924</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>0.7913</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>0.7916</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>0.7941</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>0.7983</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>0.8024</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>0.8052</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>0.8063</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>0.8063</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>0.8051</v>
+        <v>0.8063</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>0.8051</v>
       </c>
       <c r="X15" s="0" t="n">
+        <v>0.8051</v>
+      </c>
+      <c r="Y15" s="0" t="n">
         <v>0.8052</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>0.8045</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>0.8044</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>0.8031</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>0.8032</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>0.8028</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>0.8033</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>0.803</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>0.801</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>0.8014</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>0.7979</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>0.7956</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>0.7945</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>0.7921</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>0.7889</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>0.7843</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>0.7801</v>
       </c>
     </row>
@@ -2055,121 +2107,126 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>0.0941</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>0.0382</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>0.0425</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>0.0884</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>0.1218</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>0.1602</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>0.1556</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>0.163</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>0.1549</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>0.1534</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>0.1502</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>0.152</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.1526</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0.1516</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>0.1441</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>0.1386</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>0.1373</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>0.1395</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>0.143</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>0.1522</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>0.1544</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>0.1558</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>0.149</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>0.1601</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>0.1555</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>0.158</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>0.1666</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>0.1496</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>0.144</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>0.1449</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>0.1499</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>0.145</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>0.1422</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>0.1393</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>0.135</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>0.1368</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>0.1378</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>0.1328</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>0.1237</v>
       </c>
     </row>
@@ -2179,121 +2236,126 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>0.0829</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>0.0687</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>0.0733</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>0.1198</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>0.1576</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.1598</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>0.1552</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>0.1626</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>0.1495</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>0.1481</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>0.1447</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>0.145</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>0.1451</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>0.1441</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>0.1368</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>0.133</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>0.1321</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>0.1345</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>0.1381</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>0.1476</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>0.1516</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>0.1448</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>0.1556</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>0.151</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>0.1534</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>0.162</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>0.1448</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>0.1391</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>0.1419</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>0.1449</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>0.1398</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>0.1369</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>0.1324</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>0.1298</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>0.1313</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>0.1321</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>0.1259</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>0.1164</v>
       </c>
     </row>
@@ -2303,121 +2365,126 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>0.0655</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>0.0439</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>0.0479</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>0.0844</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>0.1234</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>0.1201</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>0.1245</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>0.1149</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>0.0848</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>0.081</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>0.0867</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>0.0843</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>0.113</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>0.1056</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>0.0962</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>0.095</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>0.0974</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>0.099</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>0.1054</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>0.1068</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>0.1065</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>0.101</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>0.1087</v>
-      </c>
-      <c r="Z18" s="0" t="n">
-        <v>0.1036</v>
       </c>
       <c r="AA18" s="0" t="n">
         <v>0.1036</v>
       </c>
       <c r="AB18" s="0" t="n">
+        <v>0.1036</v>
+      </c>
+      <c r="AC18" s="0" t="n">
         <v>0.1098</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>0.0977</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>0.0968</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>0.0991</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>0.1002</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>0.0975</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>0.093</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>0.0897</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>0.0882</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>0.0889</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>0.0891</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>0.0857</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>0.0795</v>
       </c>
     </row>
@@ -2427,121 +2494,126 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>0.1708</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>0.1574</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>0.1161</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>0.1255</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>0.1109</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>0.102</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.1194</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.1164</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.1224</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>0.1359</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>0.1413</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>0.1432</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.1446</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>0.1216</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>0.1098</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>0.1063</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>0.1014</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>0.0995</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>0.1122</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>0.1209</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>0.1268</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>0.1219</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>0.1364</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>0.1187</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>0.1156</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>0.1034</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>0.0934</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>0.0904</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>0.0848</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>0.0902</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>0.0752</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>0.0735</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>0.0728</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>0.0615</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>0.0727</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>0.0809</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>0.0785</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>0.0713</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>0.0767</v>
       </c>
     </row>
@@ -2551,121 +2623,126 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>2747000000.0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>2645000000.0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>2726000000.0</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>3055000000.0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>3293000000.0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>3008000000.0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>2870000000.0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>3011000000.0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>2743000000.0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>2674000000.0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>2586000000.0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>2535000000.0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>2450000000.0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>2340000000.0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>2168000000.0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>2052000000.0</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>1993000000.0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>1998000000.0</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>2025000000.0</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>2110400000.0</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>2120600000.0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>2117400000.0</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>2015000000.0</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>2161400400.0</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>2101400500.0</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>2122400500.0</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>2212200800.0</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>1980602200.0</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>1878901900.0</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>1859501700.0</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>1880601400.0</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>1802699800.0</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>1753099900.0</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>1689100100.0</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>1629200100.0</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>1601999100.0</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>1638799100.0</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>1554599200.0</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>1421799100.0</v>
       </c>
     </row>
@@ -2676,120 +2753,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>1841000000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>1334000000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>532000000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>606000000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>1365000000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>1930000000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>2440000000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>2313000000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>2375000000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>2199000000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>2138000000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>2055000000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>2019000000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>1948000000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>1855000000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>1704000000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>1605000000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>1562000000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>1575000000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>1610000000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>1695000000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>1708200000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>1711000000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>1606000000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>1758200200.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>1702600300.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>1726100300.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>1827600500.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>1593201600.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>1496701400.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>1493501300.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>1526001100.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>1453400100.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>1419800100.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>1363700200.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>1311700200.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>1303099500.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>1300699500.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>1221399600.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>1089399500.0</v>
       </c>
     </row>
@@ -2800,120 +2880,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>2.5577</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>1.7044</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>1.8971</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>3.5716</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>5.0951</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>5.1251</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>4.8435</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>4.9129</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>4.396</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>3.1685</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>2.9731</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>3.0878</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>2.8981</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>3.7198</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>3.3673</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>3.0065</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>2.9089</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>2.9489</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>2.9766</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>3.1264</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>3.1271</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>3.0666</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>2.8364</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>3.0988</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>2.9349</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>2.902</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>3.0758</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>2.6523</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>2.5614</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>2.5993</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>2.5926</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>2.4806</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>2.3578</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>2.2273</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>2.1675</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>2.1426</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>2.1209</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>1.9737</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>1.7491</v>
       </c>
     </row>
@@ -2924,120 +3007,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>3.8546</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>2.5839</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>1.7254</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>1.9302</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>3.6405</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>5.1907</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>5.2214</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>4.9353</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>5.0084</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>4.4859</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>3.2367</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>3.0353</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>3.1469</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>2.9477</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>3.7807</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>3.4214</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>3.0566</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>2.9599</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>3.0027</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>3.0297</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>3.182</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>3.1818</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>3.1188</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>2.8842</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>3.1504</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>2.9838</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>2.9528</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>3.1307</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>2.6996</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>2.6077</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>2.6469</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>2.6413</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>2.5267</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>2.4029</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>2.2729</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>2.2137</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>2.1902</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>2.1685</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>2.0178</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>1.7864</v>
       </c>
     </row>
@@ -3048,120 +3134,123 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>3.8546</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>2.5839</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>1.7254</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>1.9302</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>3.6405</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>5.1907</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>5.2214</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>4.9353</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>5.0084</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>4.4859</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>3.2367</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>3.0353</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>3.1469</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>2.9477</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>3.7807</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>3.4214</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>3.0566</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>2.9599</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>3.0027</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>3.0297</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>3.182</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>3.1818</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>3.1188</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>2.8842</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>3.1504</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>2.9838</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>2.9528</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>3.1307</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>2.6996</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>2.6077</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>2.6469</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>2.6413</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>2.5267</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>2.4029</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>2.2729</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>2.2137</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>2.1902</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>2.1685</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>2.0178</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>1.7864</v>
       </c>
     </row>
@@ -3172,120 +3261,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>1401000000.0</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>939000000.0</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>623000000.0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>696000000.0</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>1313000000.0</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>1874000000.0</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>1890000000.0</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>1794000000.0</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>1824000000.0</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>1641000000.0</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>1189000000.0</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>1117000000.0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>1159000000.0</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>1085000000.0</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>1390000000.0</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>1256000000.0</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>1121000000.0</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>1087000000.0</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>1106000000.0</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>1121000000.0</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>1180400000.0</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>1187100000.0</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>1175800000.0</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>1094000000.0</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>1198000100.0</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>1139000100.0</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>1136500100.0</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>1209100100.0</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>1046599900.0</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>1011799900.0</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>1025999900.0</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>1023799900.0</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>980100000.0</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>932500000.0</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>881500000.0</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>860500000.0</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>851499900.0</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>845299900.0</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>792799900.0</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>703799900.0</v>
       </c>
     </row>
@@ -3296,120 +3388,123 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>1401000000.0</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>939000000.0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>623000000.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>696000000.0</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>1313000000.0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>1874000000.0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>1890000000.0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>1794000000.0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>1824000000.0</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>1641000000.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>1189000000.0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>1117000000.0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>1159000000.0</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>1085000000.0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>1390000000.0</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>1256000000.0</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>1121000000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>1087000000.0</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>1106000000.0</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>1121000000.0</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>1180400000.0</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>1187100000.0</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>1175800000.0</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>1094000000.0</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>1198000000.0</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>1139000000.0</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>1136500000.0</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>1209100000.0</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>1046600000.0</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>1011800000.0</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>1026000000.0</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>1023800000.0</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>980100000.0</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>932500000.0</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>881500000.0</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>860500000.0</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>851500000.0</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>845300000.0</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>792800000.0</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>703800000.0</v>
       </c>
     </row>
@@ -3419,121 +3514,126 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>0.1938</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>0.1898</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>0.191</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>0.1979</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>0.2078</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>0.1975</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>0.1931</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>0.2067</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>0.1933</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>0.1919</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>0.189</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>0.1909</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>0.1919</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>0.1913</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>0.1834</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>0.1773</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>0.1752</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>0.1769</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>0.1798</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>0.1894</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>0.1917</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>0.1928</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>0.1869</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>0.1968</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>0.1919</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>0.1943</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>0.2017</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>0.186</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>0.1808</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>0.1804</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>0.1847</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>0.1798</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>0.1756</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>0.1726</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>0.1677</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>0.1682</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>0.1736</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>0.1691</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>0.1614</v>
       </c>
     </row>
@@ -3543,121 +3643,126 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>0.2118</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>0.2015</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>0.1598</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>0.1753</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>0.1577</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>0.1619</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>0.1693</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>0.1646</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>0.1688</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>0.1695</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>0.1872</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>0.1851</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>0.1883</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>0.1653</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>0.1514</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>0.149</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>0.1451</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>0.1444</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>0.1589</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>0.1682</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>0.1728</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>0.166</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>0.1802</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>0.1594</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>0.1595</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>0.1495</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>0.1372</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>0.1302</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>0.1204</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>0.1188</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>0.1174</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>0.106</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>0.116</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>0.1228</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>0.1196</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>0.112</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>0.1166</v>
       </c>
     </row>
